--- a/Project Documentation/tables.xlsx
+++ b/Project Documentation/tables.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="product" sheetId="1" r:id="rId1"/>
     <sheet name="order" sheetId="2" r:id="rId2"/>
     <sheet name="category" sheetId="3" r:id="rId3"/>
     <sheet name="customer" sheetId="4" r:id="rId4"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="173">
   <si>
     <t>OrderID</t>
   </si>
@@ -40,9 +40,6 @@
     <t>PaymentID</t>
   </si>
   <si>
-    <t>OrderNumber Bridge table?</t>
-  </si>
-  <si>
     <t>OrderDate</t>
   </si>
   <si>
@@ -488,13 +485,76 @@
   </si>
   <si>
     <t>GIFTCARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrderNumber </t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>ShoppingCartID</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>ProductDesc</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>Kindle Paperwhite</t>
+  </si>
+  <si>
+    <t>Tablet with 6" high-resolution display with builtin light</t>
+  </si>
+  <si>
+    <t>ASUS Chromebook C201</t>
+  </si>
+  <si>
+    <t>11.6 inch latop, navy blue</t>
+  </si>
+  <si>
+    <t>Poweradd power converter</t>
+  </si>
+  <si>
+    <t>2-outlet universal travel adapter</t>
+  </si>
+  <si>
+    <t>Maybelline New York Super Stay</t>
+  </si>
+  <si>
+    <t>Matte ink lip color</t>
+  </si>
+  <si>
+    <t>T3 Featherweight</t>
+  </si>
+  <si>
+    <t>Hair dryer with 2 speed settings, 3 heat settings and a 2-year warranty</t>
+  </si>
+  <si>
+    <t>Under Armour Micro G running shoes</t>
+  </si>
+  <si>
+    <t>Black running shoes with rubber sole &amp; breathable mesh</t>
+  </si>
+  <si>
+    <t>10k Rose Gold plated white Gold Diamond ring</t>
+  </si>
+  <si>
+    <t>0.75cttw, I-J Color, I2-I3 Clarity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +567,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -529,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -541,6 +606,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,18 +888,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4769287492</v>
+      </c>
+      <c r="B2">
+        <v>1178293746</v>
+      </c>
+      <c r="C2">
+        <v>7680865457</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>139.99</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4789638387</v>
+      </c>
+      <c r="B3">
+        <v>1178293746</v>
+      </c>
+      <c r="C3">
+        <v>7656556434</v>
+      </c>
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>269.99</v>
+      </c>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4467902032</v>
+      </c>
+      <c r="B4">
+        <v>1178293746</v>
+      </c>
+      <c r="C4">
+        <v>7786563242</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>29.99</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4192384539</v>
+      </c>
+      <c r="B5">
+        <v>1183946234</v>
+      </c>
+      <c r="C5">
+        <v>7680865457</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4298304945</v>
+      </c>
+      <c r="B6">
+        <v>1183946234</v>
+      </c>
+      <c r="C6">
+        <v>7656556434</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>246.92</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4394098002</v>
+      </c>
+      <c r="B7">
+        <v>1183749466</v>
+      </c>
+      <c r="C7">
+        <v>7786563242</v>
+      </c>
+      <c r="D7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>67.489999999999995</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4689203845</v>
+      </c>
+      <c r="B8">
+        <v>1183749466</v>
+      </c>
+      <c r="C8">
+        <v>7100987832</v>
+      </c>
+      <c r="D8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>538.41999999999996</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -841,13 +1110,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" customWidth="1"/>
@@ -872,34 +1142,34 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -913,10 +1183,10 @@
         <v>7836482947</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="3">
         <v>42797</v>
@@ -925,22 +1195,22 @@
         <v>42798</v>
       </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -954,10 +1224,10 @@
         <v>7836482947</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3">
         <v>42797</v>
@@ -966,22 +1236,22 @@
         <v>42799</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -995,10 +1265,10 @@
         <v>7768543543</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3">
         <v>42797</v>
@@ -1007,22 +1277,22 @@
         <v>42800</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1036,7 +1306,7 @@
         <v>7864534686</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
         <v>42911</v>
@@ -1048,19 +1318,19 @@
         <v>42921</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" s="4">
         <v>42911</v>
@@ -1077,7 +1347,7 @@
         <v>7864534686</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>42912</v>
@@ -1089,19 +1359,19 @@
         <v>42921</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" s="4">
         <v>42912</v>
@@ -1118,7 +1388,7 @@
         <v>7836482947</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2">
         <v>42913</v>
@@ -1130,19 +1400,19 @@
         <v>42921</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" s="4">
         <v>42913</v>
@@ -1159,7 +1429,7 @@
         <v>7836482947</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2">
         <v>42914</v>
@@ -1171,19 +1441,19 @@
         <v>42921</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" s="4">
         <v>42914</v>
@@ -1212,16 +1482,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,13 +1499,13 @@
         <v>1178293746</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1243,13 +1513,13 @@
         <v>1183946234</v>
       </c>
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1257,13 +1527,13 @@
         <v>1183749466</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,13 +1541,13 @@
         <v>1173973745</v>
       </c>
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,13 +1555,13 @@
         <v>1173740667</v>
       </c>
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1324,43 +1594,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1371,31 +1641,31 @@
         <v>2874837485</v>
       </c>
       <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>63</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>64</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>65</v>
-      </c>
-      <c r="L2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1406,31 +1676,31 @@
         <v>2348694685</v>
       </c>
       <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>69</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
         <v>70</v>
       </c>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
         <v>71</v>
       </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>72</v>
-      </c>
-      <c r="L3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1441,31 +1711,31 @@
         <v>2123487658</v>
       </c>
       <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>75</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>76</v>
       </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>10987</v>
       </c>
       <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
         <v>78</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>79</v>
-      </c>
-      <c r="L4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1476,31 +1746,31 @@
         <v>2213987768</v>
       </c>
       <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>82</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>83</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>85</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
         <v>86</v>
       </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>87</v>
-      </c>
-      <c r="L5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1511,34 +1781,34 @@
         <v>2456554295</v>
       </c>
       <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>90</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>91</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>92</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>93</v>
-      </c>
-      <c r="H6" t="s">
-        <v>94</v>
       </c>
       <c r="I6">
         <v>27576</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" t="s">
         <v>95</v>
-      </c>
-      <c r="L6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1549,31 +1819,31 @@
         <v>2784389769</v>
       </c>
       <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
         <v>97</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>98</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>99</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>100</v>
-      </c>
-      <c r="H7" t="s">
-        <v>101</v>
       </c>
       <c r="I7">
         <v>76011</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" t="s">
         <v>102</v>
-      </c>
-      <c r="L7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1584,31 +1854,31 @@
         <v>2098394856</v>
       </c>
       <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
         <v>104</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>105</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>106</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
         <v>107</v>
       </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
         <v>108</v>
       </c>
-      <c r="J8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>109</v>
-      </c>
-      <c r="L8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1619,31 +1889,31 @@
         <v>2498394983</v>
       </c>
       <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
         <v>111</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>112</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>113</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>114</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>115</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
         <v>116</v>
       </c>
-      <c r="J9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>117</v>
-      </c>
-      <c r="L9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1654,31 +1924,31 @@
         <v>2895567854</v>
       </c>
       <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
         <v>119</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>120</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>121</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>122</v>
-      </c>
-      <c r="H10" t="s">
-        <v>123</v>
       </c>
       <c r="I10">
         <v>9002</v>
       </c>
       <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
         <v>124</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>125</v>
-      </c>
-      <c r="L10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1689,31 +1959,31 @@
         <v>2435754334</v>
       </c>
       <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
         <v>127</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>128</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>129</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>130</v>
-      </c>
-      <c r="H11" t="s">
-        <v>131</v>
       </c>
       <c r="I11">
         <v>4615</v>
       </c>
       <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
         <v>132</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>133</v>
-      </c>
-      <c r="L11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1724,31 +1994,31 @@
         <v>2654556783</v>
       </c>
       <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
         <v>135</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>136</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>137</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>138</v>
-      </c>
-      <c r="H12" t="s">
-        <v>139</v>
       </c>
       <c r="I12">
         <v>95120</v>
       </c>
       <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
         <v>140</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>141</v>
-      </c>
-      <c r="L12" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1776,22 +2046,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>147</v>
-      </c>
-      <c r="F1" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +2079,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1818,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1826,7 +2096,7 @@
         <v>7836482947</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1834,7 +2104,7 @@
         <v>7768543543</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1842,7 +2112,7 @@
         <v>7864534686</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
